--- a/Mifos Automation Excels/Client/4445-ACTCTR-MEETING-WEEKLYonFRI-SUBMITJLGloan-SYNK-DISP+REPAYwithMEETING-Weeklyloanevery1weeks-Modapp-Synkrepaywithmeeting-Changedisbdate.xlsx
+++ b/Mifos Automation Excels/Client/4445-ACTCTR-MEETING-WEEKLYonFRI-SUBMITJLGloan-SYNK-DISP+REPAYwithMEETING-Weeklyloanevery1weeks-Modapp-Synkrepaywithmeeting-Changedisbdate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>product</t>
   </si>
   <si>
-    <t>4350-Simple-Group-Loan-Product</t>
-  </si>
-  <si>
     <t>submitteddateon</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>Group4445</t>
+  </si>
+  <si>
+    <t>4350-Simple-Group-Loan-Product-1st</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -397,7 +397,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -747,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -856,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -871,7 +870,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -951,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -962,83 +961,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="12">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="13">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>42006</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>35</v>
+      <c r="B9" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1062,39 +1061,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="9">
         <v>42005</v>
@@ -1102,23 +1101,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="9">
         <v>42013</v>
@@ -1126,10 +1125,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1148,100 +1147,100 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+      <c r="A2" s="18">
         <v>10000</v>
       </c>
-      <c r="B2" s="20">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20">
-        <v>0</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="B2" s="19">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18">
         <v>10000</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>126.95</v>
       </c>
-      <c r="B3" s="20">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0</v>
-      </c>
-      <c r="D3" s="20">
-        <v>0</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
         <v>126.95</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>126.95</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
-        <v>0</v>
-      </c>
-      <c r="B4" s="20">
-        <v>0</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20">
-        <v>0</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="A4" s="19">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
-        <v>0</v>
-      </c>
-      <c r="B5" s="20">
-        <v>0</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="F5" s="20">
+      <c r="A5" s="19">
+        <v>0</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1261,552 +1260,552 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>54</v>
+      <c r="O1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="23">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="22">
         <v>42013</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18">
         <v>10000</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20">
-        <v>0</v>
-      </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20">
-        <v>0</v>
-      </c>
-      <c r="L2" s="20">
-        <v>0</v>
-      </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19">
+        <v>0</v>
+      </c>
+      <c r="L2" s="19">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>7</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>42020</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19">
         <v>824.77</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>8329.34</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>21.12</v>
       </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20">
-        <v>845.89</v>
-      </c>
-      <c r="L3" s="20">
-        <v>0</v>
-      </c>
-      <c r="M3" s="20">
-        <v>0</v>
-      </c>
-      <c r="N3" s="20">
-        <v>0</v>
-      </c>
-      <c r="P3" s="20">
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
+        <v>845.89</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19">
         <v>845.89</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>7</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>42027</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19">
         <v>826.67</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>7502.67</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>19.22</v>
       </c>
-      <c r="I4" s="20">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20">
-        <v>845.89</v>
-      </c>
-      <c r="L4" s="20">
-        <v>0</v>
-      </c>
-      <c r="M4" s="20">
-        <v>0</v>
-      </c>
-      <c r="N4" s="20">
-        <v>0</v>
-      </c>
-      <c r="P4" s="20">
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>845.89</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
+        <v>0</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0</v>
+      </c>
+      <c r="P4" s="19">
         <v>845.89</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>7</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>42034</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19">
         <v>828.58</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>6674.09</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>17.309999999999999</v>
       </c>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
-        <v>845.89</v>
-      </c>
-      <c r="L5" s="20">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20">
-        <v>0</v>
-      </c>
-      <c r="N5" s="20">
-        <v>0</v>
-      </c>
-      <c r="P5" s="20">
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>845.89</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
         <v>845.89</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>7</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>42041</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19">
         <v>830.49</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>5843.6</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>15.4</v>
       </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
-        <v>845.89</v>
-      </c>
-      <c r="L6" s="20">
-        <v>0</v>
-      </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20">
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <v>845.89</v>
+      </c>
+      <c r="L6" s="19">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
         <v>845.89</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>7</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>42048</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
         <v>832.4</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>5011.2</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>13.49</v>
       </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
-        <v>845.89</v>
-      </c>
-      <c r="L7" s="20">
-        <v>0</v>
-      </c>
-      <c r="M7" s="20">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>845.89</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
         <v>845.89</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>7</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>42055</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19">
         <v>834.33</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>4176.87</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>11.56</v>
       </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20">
-        <v>845.89</v>
-      </c>
-      <c r="L8" s="20">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
-        <v>0</v>
-      </c>
-      <c r="N8" s="20">
-        <v>0</v>
-      </c>
-      <c r="P8" s="20">
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>845.89</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
         <v>845.89</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>7</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>42062</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>836.25</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>3340.62</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>9.64</v>
       </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
-        <v>845.89</v>
-      </c>
-      <c r="L9" s="20">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20">
-        <v>0</v>
-      </c>
-      <c r="N9" s="20">
-        <v>0</v>
-      </c>
-      <c r="P9" s="20">
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>845.89</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
         <v>845.89</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>7</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>42069</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19">
         <v>838.18</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>2502.44</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>7.71</v>
       </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
-        <v>845.89</v>
-      </c>
-      <c r="L10" s="20">
-        <v>0</v>
-      </c>
-      <c r="M10" s="20">
-        <v>0</v>
-      </c>
-      <c r="N10" s="20">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <v>845.89</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
         <v>845.89</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>7</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>42076</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19">
         <v>840.12</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>1662.32</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>5.77</v>
       </c>
-      <c r="I11" s="20">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20">
-        <v>845.89</v>
-      </c>
-      <c r="L11" s="20">
-        <v>0</v>
-      </c>
-      <c r="M11" s="20">
-        <v>0</v>
-      </c>
-      <c r="N11" s="20">
-        <v>0</v>
-      </c>
-      <c r="P11" s="20">
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <v>845.89</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
         <v>845.89</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>7</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>42083</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19">
         <v>842.05</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>820.27</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>3.84</v>
       </c>
-      <c r="I12" s="20">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20">
-        <v>0</v>
-      </c>
-      <c r="K12" s="20">
-        <v>845.89</v>
-      </c>
-      <c r="L12" s="20">
-        <v>0</v>
-      </c>
-      <c r="M12" s="20">
-        <v>0</v>
-      </c>
-      <c r="N12" s="20">
-        <v>0</v>
-      </c>
-      <c r="P12" s="20">
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <v>845.89</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0</v>
+      </c>
+      <c r="P12" s="19">
         <v>845.89</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>7</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>42090</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19">
         <v>820.27</v>
       </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
         <v>1.89</v>
       </c>
-      <c r="I13" s="20">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20">
-        <v>0</v>
-      </c>
-      <c r="K13" s="20">
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
         <v>822.16</v>
       </c>
-      <c r="L13" s="20">
-        <v>0</v>
-      </c>
-      <c r="M13" s="20">
-        <v>0</v>
-      </c>
-      <c r="N13" s="20">
-        <v>0</v>
-      </c>
-      <c r="P13" s="20">
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19">
         <v>822.16</v>
       </c>
     </row>
@@ -1826,66 +1825,66 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
+        <v>7</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
-        <v>7</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="22">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="23">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>10000</v>
       </c>
-      <c r="F2" s="20">
-        <v>0</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="20">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20">
-        <v>0</v>
-      </c>
-      <c r="J2" s="19">
+      <c r="F2" s="19">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
         <v>10000</v>
       </c>
     </row>
